--- a/output/missing-values-hpv_test.xlsx
+++ b/output/missing-values-hpv_test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t xml:space="preserve">pid</t>
   </si>
@@ -50,6 +50,9 @@
     <t xml:space="preserve">TSH0018</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0019</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0020</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
     <t xml:space="preserve">TSH0048</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0073</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0076</t>
   </si>
   <si>
@@ -122,6 +128,12 @@
     <t xml:space="preserve">TSH0261</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0269</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0281</t>
   </si>
   <si>
@@ -131,6 +143,12 @@
     <t xml:space="preserve">TSH0289</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0297</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0320</t>
   </si>
   <si>
@@ -143,6 +161,9 @@
     <t xml:space="preserve">TSH0330</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0353</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0391</t>
   </si>
   <si>
@@ -170,6 +191,9 @@
     <t xml:space="preserve">TSH0694</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0697</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0758</t>
   </si>
   <si>
@@ -179,12 +203,21 @@
     <t xml:space="preserve">TSH0787</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0792</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0823</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0824</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0855</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0874</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0887</t>
   </si>
   <si>
@@ -194,9 +227,15 @@
     <t xml:space="preserve">TSH0907</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0933</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0939</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0942</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1019</t>
   </si>
   <si>
@@ -254,25 +293,40 @@
     <t xml:space="preserve">TSH1308</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1339</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1435</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1440</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1452</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1559</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1573</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1693</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1802</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1803</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1865</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1953</t>
   </si>
 </sst>
 </file>
@@ -722,7 +776,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20"/>
     </row>
@@ -860,37 +914,37 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48"/>
     </row>
@@ -1145,6 +1199,114 @@
         <v>86</v>
       </c>
       <c r="B90"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>90</v>
+      </c>
+      <c r="B94"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>98</v>
+      </c>
+      <c r="B102"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>102</v>
+      </c>
+      <c r="B106"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>104</v>
+      </c>
+      <c r="B108"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
